--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8190" tabRatio="703" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="8190" tabRatio="703" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15512,8 +15512,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -15853,7 +15853,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15874,6 +15904,53 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -15881,8 +15958,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15896,93 +15981,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -16132,13 +16132,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16156,13 +16198,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16174,25 +16276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16204,97 +16288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16306,7 +16306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16320,22 +16320,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16350,16 +16360,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16379,32 +16389,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16417,16 +16406,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16435,131 +16435,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18898,8 +18898,8 @@
   <sheetPr/>
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -21875,8 +21875,8 @@
   <sheetPr/>
   <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -23337,7 +23337,7 @@
   <sheetPr/>
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8190" tabRatio="703" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="8190" tabRatio="703" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2306,7 +2306,18 @@
     <t>1143. 最长公共子序列</t>
   </si>
   <si>
-    <t>1035. 不相交的线</t>
+    <r>
+      <t xml:space="preserve">1035. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF212835"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不相交的线</t>
+    </r>
   </si>
   <si>
     <r>
@@ -15512,10 +15523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="83">
     <font>
@@ -15852,75 +15863,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15943,6 +15888,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -15951,16 +15934,36 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15974,8 +15977,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -16132,7 +16143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16144,7 +16161,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16156,121 +16275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16288,13 +16299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16320,17 +16331,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16350,41 +16387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16409,11 +16422,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16423,10 +16434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16435,131 +16446,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17968,8 +17979,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -18898,7 +18909,7 @@
   <sheetPr/>
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
